--- a/output/fit_clients/fit_round_109.xlsx
+++ b/output/fit_clients/fit_round_109.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1814493773.80073</v>
+        <v>1547952355.312752</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1039310608721574</v>
+        <v>0.0898922161877387</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03133800348193945</v>
+        <v>0.03960367083281949</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>907246857.5157834</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1877368798.044804</v>
+        <v>2605455552.485437</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1327067012239897</v>
+        <v>0.1588251959387159</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03672207836947148</v>
+        <v>0.04566826952354069</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>938684420.0293247</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3863787135.727099</v>
+        <v>3430506654.951416</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1600091429386602</v>
+        <v>0.1041701852038897</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03034968572139654</v>
+        <v>0.02528125900944232</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>40</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1931893572.332719</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3654573138.600081</v>
+        <v>3431750738.053236</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07921186599518955</v>
+        <v>0.06793159623289043</v>
       </c>
       <c r="G5" t="n">
-        <v>0.033145918312004</v>
+        <v>0.03711941094863498</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>46</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1827286595.824374</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2150820790.205414</v>
+        <v>1944239376.099079</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1157113131486533</v>
+        <v>0.1277581042851363</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04114312699965247</v>
+        <v>0.05187617719118102</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>18</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1075410408.302822</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2871178644.839659</v>
+        <v>2404387487.098922</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08653668487009705</v>
+        <v>0.09511301111640307</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03822674163223821</v>
+        <v>0.04607111333472036</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>34</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1435589299.661842</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3681776928.315102</v>
+        <v>3171519073.448388</v>
       </c>
       <c r="F8" t="n">
-        <v>0.19921394660813</v>
+        <v>0.1627023883026747</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02169860019649359</v>
+        <v>0.02385353039797278</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>35</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1840888591.299793</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1618870771.307278</v>
+        <v>2020819143.03359</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1992259399045552</v>
+        <v>0.1520786154476183</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02338730146773316</v>
+        <v>0.02971625604481193</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>809435465.0776519</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3839043865.121163</v>
+        <v>5109654087.368795</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1567443009637846</v>
+        <v>0.1975431169801804</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04671516395575018</v>
+        <v>0.05445358958751052</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>46</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1919521941.940177</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2971012996.336245</v>
+        <v>3658864985.199444</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1294451272594798</v>
+        <v>0.1359040506138031</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04158136361063696</v>
+        <v>0.04275077819281585</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>46</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1485506439.003881</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2575339872.170423</v>
+        <v>3315920478.766988</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1312529903762061</v>
+        <v>0.153052280591586</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05302802047067737</v>
+        <v>0.03387740387748042</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>38</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1287669915.159077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3837929934.175391</v>
+        <v>4377181449.050546</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07286596034638597</v>
+        <v>0.09906994685844354</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02373988859626664</v>
+        <v>0.02238085765924391</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>37</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1918965030.197269</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3038234449.351246</v>
+        <v>3162847345.80218</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1761977442523036</v>
+        <v>0.1822140355032542</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02943030530516244</v>
+        <v>0.03720979089829657</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>35</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1519117256.292074</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1668675083.01618</v>
+        <v>1679454705.463072</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07511191587339253</v>
+        <v>0.07883456348795091</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0332646429791274</v>
+        <v>0.04447122835697795</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>834337665.1816689</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2309660612.820293</v>
+        <v>1822160298.983666</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1071341778716217</v>
+        <v>0.08407238226619239</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04123055963133804</v>
+        <v>0.04204789925432437</v>
       </c>
       <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>15</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1154830354.168747</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4120556934.98912</v>
+        <v>3699843905.305948</v>
       </c>
       <c r="F17" t="n">
-        <v>0.16706893630765</v>
+        <v>0.1165959801632518</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04743062357391615</v>
+        <v>0.03616565991836031</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>32</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2060278496.099732</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3778506475.868668</v>
+        <v>2623144579.452609</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1242111640797868</v>
+        <v>0.1506150233721249</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03375472844581315</v>
+        <v>0.02480573819921719</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>36</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1889253211.773716</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1038288818.59464</v>
+        <v>831959590.5218357</v>
       </c>
       <c r="F19" t="n">
-        <v>0.169825766061501</v>
+        <v>0.171996246123357</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02174665334832531</v>
+        <v>0.0245207234028303</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>519144447.7785911</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2740753897.035011</v>
+        <v>1730950131.417301</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1160512090389074</v>
+        <v>0.1092575114156179</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02797832364218002</v>
+        <v>0.02544584384747684</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>13</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1370376895.904199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2179271809.844798</v>
+        <v>2498872890.650658</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08069059266174389</v>
+        <v>0.07720524020792681</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03724096291732966</v>
+        <v>0.0337464551888606</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>10</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1089635923.665815</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3101992586.103625</v>
+        <v>2437240541.258246</v>
       </c>
       <c r="F22" t="n">
-        <v>0.114783451325284</v>
+        <v>0.1292118675309353</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03529807744993591</v>
+        <v>0.0541144928932253</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>30</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1550996348.41596</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1074487853.414953</v>
+        <v>1233200090.706636</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1706761170931543</v>
+        <v>0.1360739630413561</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04524715257922436</v>
+        <v>0.04275289439341265</v>
       </c>
       <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>537243984.2740474</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2552703716.380906</v>
+        <v>3106200021.44007</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1369967083839939</v>
+        <v>0.1054766588375611</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03393514687830719</v>
+        <v>0.03521251747417771</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>32</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1276351923.451155</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1418933974.682973</v>
+        <v>978936979.6511403</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08304855868270132</v>
+        <v>0.1028580719158915</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02605682375572286</v>
+        <v>0.02405465622411175</v>
       </c>
       <c r="H25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>709466954.8782471</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1306009966.797306</v>
+        <v>1370212549.940287</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09901480509660142</v>
+        <v>0.08498231860681581</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03384705962385886</v>
+        <v>0.03512066392226821</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>653005030.3661463</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2913698329.447606</v>
+        <v>3908946007.512388</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09531163449573012</v>
+        <v>0.1549480401697097</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0189147831028635</v>
+        <v>0.01735164106538142</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>26</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1456849228.790183</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2511051964.719213</v>
+        <v>2532725618.000454</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1148332496451191</v>
+        <v>0.1382711258371781</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04261212259229595</v>
+        <v>0.03646273745065572</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>35</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1255525951.065173</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5915802500.075939</v>
+        <v>4063750796.147077</v>
       </c>
       <c r="F29" t="n">
-        <v>0.140400610953644</v>
+        <v>0.1402361673074163</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04189155785752319</v>
+        <v>0.03478070262228106</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>51</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2957901134.032187</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1620650610.836882</v>
+        <v>1585953621.670332</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1390179904936719</v>
+        <v>0.09995785693044607</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03126907846221116</v>
+        <v>0.03462699389527864</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>810325299.6010916</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1225080142.213881</v>
+        <v>1037036687.762718</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08186678853092291</v>
+        <v>0.08542158405771107</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04704050359497979</v>
+        <v>0.03660865139620255</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>612540016.6154987</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1873880236.510991</v>
+        <v>1452028052.83658</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1077692751496627</v>
+        <v>0.1117605103854455</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03311452439689695</v>
+        <v>0.02803449385572794</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>936940263.9858658</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2048067609.470856</v>
+        <v>2666705296.495937</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1256372239152925</v>
+        <v>0.1676443629096181</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05694555471426973</v>
+        <v>0.03793369890993088</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>31</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1024033881.379703</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1545383689.552451</v>
+        <v>1121923977.700566</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08062444275926127</v>
+        <v>0.1127170149031115</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02831253636795083</v>
+        <v>0.02491653278547746</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>772691793.1149156</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1128863440.270877</v>
+        <v>947509918.3634974</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09281985209687624</v>
+        <v>0.11240495232288</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03641317938356952</v>
+        <v>0.03204216151514317</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>564431710.3962379</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2666202558.883167</v>
+        <v>2168084185.885555</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1694628581711491</v>
+        <v>0.1542121730031444</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0244601556407324</v>
+        <v>0.02067448771205422</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>29</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1333101288.045136</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1975594226.789425</v>
+        <v>2453723440.566672</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07405198302354432</v>
+        <v>0.09387425121569426</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02825053320378368</v>
+        <v>0.0393405432258425</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>29</v>
-      </c>
-      <c r="J37" t="n">
-        <v>987797137.262736</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1328276163.694085</v>
+        <v>1667384382.480721</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07974508494613626</v>
+        <v>0.1107785140132343</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0250035992983526</v>
+        <v>0.0354079491785971</v>
       </c>
       <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>664138155.2986001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1798894109.985713</v>
+        <v>1606796883.024371</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1535400942505033</v>
+        <v>0.1206843137135897</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0304676250642955</v>
+        <v>0.02811556737514253</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>899447079.9872277</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1799988996.952529</v>
+        <v>1375228689.840713</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1028342430272051</v>
+        <v>0.09970626734635271</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05604185096971467</v>
+        <v>0.04009671938994781</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>899994389.5038906</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2938008177.355535</v>
+        <v>2083260949.890612</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1214378034082611</v>
+        <v>0.1338185370411278</v>
       </c>
       <c r="G41" t="n">
-        <v>0.030457573572838</v>
+        <v>0.03281230459911072</v>
       </c>
       <c r="H41" t="b">
         <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>26</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1469004071.00138</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2656656690.631438</v>
+        <v>2873885287.925061</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1111427790081914</v>
+        <v>0.08421681998857722</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03137883141907546</v>
+        <v>0.04278620860064061</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>38</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1328328282.065269</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>3003253553.556367</v>
+        <v>2514116572.212252</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1618709985406525</v>
+        <v>0.1946966168092319</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02438063027758577</v>
+        <v>0.0195569477625137</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>34</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1501626774.754141</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1977836167.269335</v>
+        <v>2295943986.650379</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06705650177585855</v>
+        <v>0.06629352970068644</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02691053240829751</v>
+        <v>0.02642947066318614</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>988918185.4888573</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1831098744.249366</v>
+        <v>2277843718.156081</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1810813744779444</v>
+        <v>0.1291117446160605</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03764886159527112</v>
+        <v>0.03711906016071972</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>915549345.9431893</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3786555151.008551</v>
+        <v>5195549767.242894</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1449070171189041</v>
+        <v>0.1217723483779467</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05545071839033267</v>
+        <v>0.04124562179854051</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>39</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1893277532.796461</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3352439584.827411</v>
+        <v>4776838862.242769</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1509735435612188</v>
+        <v>0.1603982637840659</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03869375535858309</v>
+        <v>0.04639937826452073</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>29</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1676219754.788454</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3930668421.868165</v>
+        <v>3091992360.852643</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08770627540608682</v>
+        <v>0.1023141318149774</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02554078094418141</v>
+        <v>0.03599547823300122</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>37</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1965334249.263849</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1216041880.038735</v>
+        <v>1766736102.78907</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1442343491649876</v>
+        <v>0.191739890328531</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04480107099779725</v>
+        <v>0.04123920787148464</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>608021016.1363282</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2739365826.113375</v>
+        <v>2926381416.809564</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1124580168192909</v>
+        <v>0.1408729436207978</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03648406088018941</v>
+        <v>0.05123890766488405</v>
       </c>
       <c r="H50" t="b">
         <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>37</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1369682991.363933</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1536114868.185404</v>
+        <v>1450247581.7082</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1940891832295319</v>
+        <v>0.1806038649671943</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05429871996219203</v>
+        <v>0.03788140857325968</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>768057431.1305444</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4784808440.262074</v>
+        <v>3860407557.41569</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1289348987185562</v>
+        <v>0.1207469316717529</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06097072435247289</v>
+        <v>0.04235214383653659</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>45</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2392404230.358967</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2416453240.263586</v>
+        <v>3419743878.495469</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1874672107515091</v>
+        <v>0.1669701905358704</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02786341853452403</v>
+        <v>0.03168105333510912</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>31</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1208226692.82679</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3457962751.95468</v>
+        <v>3809167242.949017</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1465267295900289</v>
+        <v>0.1555265552114821</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03893535848799236</v>
+        <v>0.03740035036402059</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>36</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1728981397.409677</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4593870110.141985</v>
+        <v>3453012858.518845</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1733171716477907</v>
+        <v>0.1973440207172986</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02406432817010601</v>
+        <v>0.02092698830528073</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>30</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2296935056.123944</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1768257437.732965</v>
+        <v>1591729936.243582</v>
       </c>
       <c r="F56" t="n">
-        <v>0.159617762586706</v>
+        <v>0.1526774205790284</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05440968872942388</v>
+        <v>0.05607314463907061</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>884128721.2875128</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4568750225.937137</v>
+        <v>3649456555.726222</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1455115591939476</v>
+        <v>0.1530191377287789</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02255276030135463</v>
+        <v>0.02376382369317453</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>35</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2284375249.012105</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1833604481.333984</v>
+        <v>1568412251.507376</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1870924555124813</v>
+        <v>0.1316692455510868</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03518002897949604</v>
+        <v>0.02528758890803984</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>916802241.3092282</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5226984363.864561</v>
+        <v>4330285399.373138</v>
       </c>
       <c r="F59" t="n">
-        <v>0.07971698762642404</v>
+        <v>0.1272280984064026</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0354061862889209</v>
+        <v>0.04241060015553179</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>30</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2613492098.618165</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3698718424.681504</v>
+        <v>3013277223.349492</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1967916245720357</v>
+        <v>0.1264011722156837</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02056642716011792</v>
+        <v>0.03097689763362755</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>34</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1849359355.897025</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2685238904.821039</v>
+        <v>2710638460.883999</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1322487864000351</v>
+        <v>0.1797415404210659</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02500547914852471</v>
+        <v>0.02952813019281227</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>37</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1342619462.497889</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1895655187.821173</v>
+        <v>1871275354.33679</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1419429001119557</v>
+        <v>0.152190463207859</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03075310140772983</v>
+        <v>0.04488470587950122</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>947827636.2909979</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4590492658.529432</v>
+        <v>4318794244.387474</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07147582365598676</v>
+        <v>0.09015090642469814</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0350702282217485</v>
+        <v>0.03455070194141173</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>32</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2295246365.255956</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4074400848.647004</v>
+        <v>3971456871.546659</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1400969294317358</v>
+        <v>0.1756592064593891</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0274994997688929</v>
+        <v>0.031343892822681</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>34</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2037200465.340623</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4243324999.377943</v>
+        <v>4868012205.558558</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1391736310165644</v>
+        <v>0.1415136906136358</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02570202084412461</v>
+        <v>0.0281779967553682</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>39</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2121662503.679281</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5352135605.451417</v>
+        <v>4382282327.067891</v>
       </c>
       <c r="F66" t="n">
-        <v>0.15292049856691</v>
+        <v>0.1051536916272124</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04576348252385834</v>
+        <v>0.04631848571250825</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>32</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2676067848.694129</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2261254069.397125</v>
+        <v>2286804511.310249</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08400614046523969</v>
+        <v>0.08341256619707667</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04369772986613372</v>
+        <v>0.03607408498662745</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>35</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1130627115.432278</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4437495902.383972</v>
+        <v>5956008771.390557</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1276373477599435</v>
+        <v>0.140502850914878</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0515569035138764</v>
+        <v>0.05156467923831234</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>35</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2218747973.43653</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1901450691.719017</v>
+        <v>1716716228.883295</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1686073285730701</v>
+        <v>0.1771613938883892</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05419322564673411</v>
+        <v>0.05904245452472415</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>950725338.0001577</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2340419527.077028</v>
+        <v>3367543770.770824</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08580190883095001</v>
+        <v>0.06825146109875581</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04760553002039366</v>
+        <v>0.04830985997774155</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>31</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1170209697.535687</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4520296050.715271</v>
+        <v>5540170119.396622</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1643696348347464</v>
+        <v>0.160093276778899</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02177440437616992</v>
+        <v>0.03288350008149656</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>40</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2260148095.172985</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1622251188.73872</v>
+        <v>1556640549.488351</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1009092611777166</v>
+        <v>0.09636155825484548</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03472457380704953</v>
+        <v>0.04551436432421501</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>811125601.5990629</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2299788348.300374</v>
+        <v>3494688600.702699</v>
       </c>
       <c r="F73" t="n">
-        <v>0.06945866796830925</v>
+        <v>0.07462440030524459</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04754593231251182</v>
+        <v>0.03898954999821008</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>42</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1149894234.172699</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2474029638.632654</v>
+        <v>3095949361.306427</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1328066057209154</v>
+        <v>0.1176528603702479</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03553115470889269</v>
+        <v>0.02613057141693631</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>38</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1237014930.117867</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2316804036.167529</v>
+        <v>1511744519.233518</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1081868398666519</v>
+        <v>0.1331242511827088</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03686302581841446</v>
+        <v>0.03324864212314439</v>
       </c>
       <c r="H75" t="b">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1158401952.494142</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4506086507.401398</v>
+        <v>4450354439.02935</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08199673696727872</v>
+        <v>0.1016062883726142</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02862216549954391</v>
+        <v>0.021245110591453</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>25</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2253043259.581412</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1535912284.588622</v>
+        <v>1664098870.138891</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1601870671255989</v>
+        <v>0.1837680878135048</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02259231718179295</v>
+        <v>0.02903792674017611</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>767956135.2195276</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4226097739.69729</v>
+        <v>3400008013.454754</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08666340398487239</v>
+        <v>0.1022748623962737</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0521104565978883</v>
+        <v>0.03872468178119601</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>38</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2113048819.333328</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1537813105.808689</v>
+        <v>1683326432.792764</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1482000425329793</v>
+        <v>0.1464512346760293</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02914875393616647</v>
+        <v>0.02872873644181114</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>768906593.6608138</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5587595029.907282</v>
+        <v>4239299635.628456</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09476591528949749</v>
+        <v>0.1040054001629194</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03769013226266682</v>
+        <v>0.03872658182722933</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>23</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2793797593.290476</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5120458146.317916</v>
+        <v>3337677310.961291</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1015670341762856</v>
+        <v>0.1030348275099863</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02851054470618662</v>
+        <v>0.02372295356893534</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>24</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2560229077.920902</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5560729686.611587</v>
+        <v>4871385908.368484</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1578854417688145</v>
+        <v>0.1543253035078528</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02717913450526919</v>
+        <v>0.02949076882000443</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>39</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2780364795.892522</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1871205456.090324</v>
+        <v>1687412544.668343</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1227913996339897</v>
+        <v>0.1079491931204141</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03218875394475342</v>
+        <v>0.03305468788508726</v>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>935602697.2862207</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1576944954.652268</v>
+        <v>2210123332.382157</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08772230909065074</v>
+        <v>0.1194297749138552</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05061914322162388</v>
+        <v>0.04000070692938785</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>1</v>
-      </c>
-      <c r="J84" t="n">
-        <v>788472544.2223951</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3508050764.60977</v>
+        <v>3199186882.914091</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1850090484621359</v>
+        <v>0.155399676387236</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04790351031257448</v>
+        <v>0.04635882441762194</v>
       </c>
       <c r="H85" t="b">
         <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>39</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1754025498.483757</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2276720421.343136</v>
+        <v>2456039793.186452</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1296380801553048</v>
+        <v>0.1703345226574439</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02497691094728285</v>
+        <v>0.02580555450871274</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>11</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1138360276.730412</v>
       </c>
     </row>
     <row r="87">
@@ -3386,22 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1286618114.354727</v>
+        <v>1022110201.083124</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1338504005771301</v>
+        <v>0.1362148397506564</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04292952639489538</v>
+        <v>0.03072562299032188</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>643309134.9206556</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2524410378.244341</v>
+        <v>3142956435.865877</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1484169554070055</v>
+        <v>0.1590930699668746</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02700490600455734</v>
+        <v>0.03483541973357413</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>43</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1262205172.509126</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2119586750.047511</v>
+        <v>2147005093.595291</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1138211621957677</v>
+        <v>0.1411994314223486</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0270671000586784</v>
+        <v>0.02850075065267511</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>38</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1059793477.600441</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1632686892.192699</v>
+        <v>1485667355.217927</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1140230996973283</v>
+        <v>0.1229290502718304</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04968155135352508</v>
+        <v>0.045265915684908</v>
       </c>
       <c r="H90" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>816343449.0504364</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1491762254.90618</v>
+        <v>2099659022.722743</v>
       </c>
       <c r="F91" t="n">
-        <v>0.157925613148359</v>
+        <v>0.1831682266369633</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05418288444156821</v>
+        <v>0.0525269713776571</v>
       </c>
       <c r="H91" t="b">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>745881167.3948088</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2927950402.478565</v>
+        <v>3004726168.478868</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06651453472938566</v>
+        <v>0.07744382277592229</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04217349745863272</v>
+        <v>0.04078301320264615</v>
       </c>
       <c r="H92" t="b">
         <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>24</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1463975217.44731</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4946595961.728765</v>
+        <v>4942561208.773016</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09261628494515896</v>
+        <v>0.1138105389994168</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04131931367667963</v>
+        <v>0.03918477699019289</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>32</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2473297920.223076</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2017047322.541942</v>
+        <v>1817403698.803254</v>
       </c>
       <c r="F94" t="n">
-        <v>0.139087591330419</v>
+        <v>0.1384444311869326</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0367514552568718</v>
+        <v>0.04220860632278243</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1008523661.750743</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2136002733.754134</v>
+        <v>2720758255.944592</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09419013243845326</v>
+        <v>0.09045418237762322</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04005142776784288</v>
+        <v>0.04974781789496592</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>26</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1068001429.367733</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1676413056.430416</v>
+        <v>1855444805.206291</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1222173182185706</v>
+        <v>0.1414366929505454</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04380150362027339</v>
+        <v>0.03986567158147061</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>838206549.6774542</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4293890140.729133</v>
+        <v>4219900290.618052</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1419443782454436</v>
+        <v>0.114656233118265</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01881939176440996</v>
+        <v>0.02612397936819019</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>35</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2146945150.305137</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3686816005.23915</v>
+        <v>2880063406.106168</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08390742869224621</v>
+        <v>0.1112317734731902</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03162098658315613</v>
+        <v>0.0233506625855501</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>29</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1843408033.814001</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3177141242.832172</v>
+        <v>2900731067.470756</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1197141244432671</v>
+        <v>0.1195694003647451</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02325619078197903</v>
+        <v>0.02561822236472906</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>34</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1588570620.151357</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4095161871.032172</v>
+        <v>3312854092.080065</v>
       </c>
       <c r="F100" t="n">
-        <v>0.144165687575148</v>
+        <v>0.1251047505936619</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01746025965420386</v>
+        <v>0.02441671170410145</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>33</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2047581013.726049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3301202809.749242</v>
+        <v>2431045729.002968</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2063410484448344</v>
+        <v>0.1724826907679572</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0359539378166538</v>
+        <v>0.05651745850346516</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>45</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1650601533.68014</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_109.xlsx
+++ b/output/fit_clients/fit_round_109.xlsx
@@ -480,22 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1547952355.312752</v>
+        <v>2067275683.254501</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0898922161877387</v>
+        <v>0.1128234405056259</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03960367083281949</v>
+        <v>0.03427756642007947</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2605455552.485437</v>
+        <v>2331913381.968176</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1588251959387159</v>
+        <v>0.1216009805633754</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04566826952354069</v>
+        <v>0.03308790558159615</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3430506654.951416</v>
+        <v>3715047150.19938</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1041701852038897</v>
+        <v>0.154022072436799</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02528125900944232</v>
+        <v>0.0260114300926238</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3431750738.053236</v>
+        <v>4194950369.2132</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06793159623289043</v>
+        <v>0.08026508381351138</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03711941094863498</v>
+        <v>0.04520438244740906</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,22 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1944239376.099079</v>
+        <v>2348673884.535315</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1277581042851363</v>
+        <v>0.09625325088118729</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05187617719118102</v>
+        <v>0.05418909927389819</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2404387487.098922</v>
+        <v>2226545267.975408</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09511301111640307</v>
+        <v>0.09167621307341799</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04607111333472036</v>
+        <v>0.03820977715029684</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3171519073.448388</v>
+        <v>2998976836.88444</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1627023883026747</v>
+        <v>0.1745127044435758</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02385353039797278</v>
+        <v>0.02918698685811279</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2020819143.03359</v>
+        <v>1998645792.091686</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1520786154476183</v>
+        <v>0.1911773426624908</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02971625604481193</v>
+        <v>0.03042073250584368</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5109654087.368795</v>
+        <v>5582597914.356029</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1975431169801804</v>
+        <v>0.1820943429720657</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05445358958751052</v>
+        <v>0.04864546051727837</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3658864985.199444</v>
+        <v>3766541971.472917</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1359040506138031</v>
+        <v>0.1666745444921326</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04275077819281585</v>
+        <v>0.03151218132890445</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3315920478.766988</v>
+        <v>2165173009.602442</v>
       </c>
       <c r="F12" t="n">
-        <v>0.153052280591586</v>
+        <v>0.1473465265763684</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03387740387748042</v>
+        <v>0.05097319246563695</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4377181449.050546</v>
+        <v>3907278684.318702</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09906994685844354</v>
+        <v>0.07702865342546529</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02238085765924391</v>
+        <v>0.02309723973540555</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -822,13 +822,13 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3162847345.80218</v>
+        <v>3010652511.304356</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1822140355032542</v>
+        <v>0.1661822550408043</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03720979089829657</v>
+        <v>0.03641641825271692</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1679454705.463072</v>
+        <v>1459450835.89583</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07883456348795091</v>
+        <v>0.1038170448782464</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04447122835697795</v>
+        <v>0.04658233494131319</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1822160298.983666</v>
+        <v>2427310083.626224</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08407238226619239</v>
+        <v>0.1076984072152796</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04204789925432437</v>
+        <v>0.0498217863912981</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3699843905.305948</v>
+        <v>4240364468.22804</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1165959801632518</v>
+        <v>0.1140289514992161</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03616565991836031</v>
+        <v>0.03371059018202315</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2623144579.452609</v>
+        <v>3405934701.412894</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1506150233721249</v>
+        <v>0.1744099307260818</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02480573819921719</v>
+        <v>0.02483388825313286</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>831959590.5218357</v>
+        <v>1198678327.864937</v>
       </c>
       <c r="F19" t="n">
-        <v>0.171996246123357</v>
+        <v>0.1878515935018841</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0245207234028303</v>
+        <v>0.02459238274817624</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1730950131.417301</v>
+        <v>1708445383.384363</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1092575114156179</v>
+        <v>0.1311056024657982</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02544584384747684</v>
+        <v>0.02807184684292074</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2498872890.650658</v>
+        <v>2396367612.981599</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07720524020792681</v>
+        <v>0.06867964047861638</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0337464551888606</v>
+        <v>0.03537278877606325</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2437240541.258246</v>
+        <v>3516245116.990998</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1292118675309353</v>
+        <v>0.1092345077063887</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0541144928932253</v>
+        <v>0.04159473642966976</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,22 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1233200090.706636</v>
+        <v>1393894756.693322</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1360739630413561</v>
+        <v>0.1383622854259155</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04275289439341265</v>
+        <v>0.05483340912952265</v>
       </c>
       <c r="H23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3106200021.44007</v>
+        <v>2777423486.154912</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1054766588375611</v>
+        <v>0.1023765901338914</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03521251747417771</v>
+        <v>0.03139937280584796</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>978936979.6511403</v>
+        <v>1353731516.04566</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1028580719158915</v>
+        <v>0.09707688802904879</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02405465622411175</v>
+        <v>0.02681118305001835</v>
       </c>
       <c r="H25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1370212549.940287</v>
+        <v>1154130548.603368</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08498231860681581</v>
+        <v>0.1218891725149096</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03512066392226821</v>
+        <v>0.02541611456031317</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3908946007.512388</v>
+        <v>3355798060.210273</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1549480401697097</v>
+        <v>0.1574523955450315</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01735164106538142</v>
+        <v>0.02183248972841945</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2532725618.000454</v>
+        <v>3768545973.575239</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1382711258371781</v>
+        <v>0.1421874802931261</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03646273745065572</v>
+        <v>0.03572136441183303</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4063750796.147077</v>
+        <v>5043334252.033992</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1402361673074163</v>
+        <v>0.1227119722740793</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03478070262228106</v>
+        <v>0.03927861763442951</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1585953621.670332</v>
+        <v>1997705424.412508</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09995785693044607</v>
+        <v>0.132143568026745</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03462699389527864</v>
+        <v>0.03048164656268863</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1037036687.762718</v>
+        <v>1039511799.236487</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08542158405771107</v>
+        <v>0.07301168326849879</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03660865139620255</v>
+        <v>0.04575462533303305</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1326,13 +1326,13 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1452028052.83658</v>
+        <v>1433627348.658895</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1117605103854455</v>
+        <v>0.117129306259799</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02803449385572794</v>
+        <v>0.03803639340726756</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2666705296.495937</v>
+        <v>2878350072.537766</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1676443629096181</v>
+        <v>0.19656806509356</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03793369890993088</v>
+        <v>0.04418666937706581</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1121923977.700566</v>
+        <v>1239272634.380556</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1127170149031115</v>
+        <v>0.09224998223732585</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02491653278547746</v>
+        <v>0.0238999691120354</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1410,13 +1410,13 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>947509918.3634974</v>
+        <v>1096123593.508998</v>
       </c>
       <c r="F35" t="n">
-        <v>0.11240495232288</v>
+        <v>0.1117244529463531</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03204216151514317</v>
+        <v>0.03035062798120717</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2168084185.885555</v>
+        <v>2527034578.010362</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1542121730031444</v>
+        <v>0.1445573877526794</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02067448771205422</v>
+        <v>0.02396309434890916</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1466,13 +1466,13 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2453723440.566672</v>
+        <v>2649246614.697488</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09387425121569426</v>
+        <v>0.1035395233603512</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0393405432258425</v>
+        <v>0.02646442650315282</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,22 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1667384382.480721</v>
+        <v>1738619402.902033</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1107785140132343</v>
+        <v>0.09382491149275514</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0354079491785971</v>
+        <v>0.03978812138336105</v>
       </c>
       <c r="H38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1516,22 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1606796883.024371</v>
+        <v>2015921253.858845</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1206843137135897</v>
+        <v>0.1519605988698033</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02811556737514253</v>
+        <v>0.02118014148982053</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1550,13 +1550,13 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1375228689.840713</v>
+        <v>1117063800.900001</v>
       </c>
       <c r="F40" t="n">
-        <v>0.09970626734635271</v>
+        <v>0.1198007022634962</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04009671938994781</v>
+        <v>0.04571723017760313</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2083260949.890612</v>
+        <v>2874782885.955941</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1338185370411278</v>
+        <v>0.1664622791141488</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03281230459911072</v>
+        <v>0.03466620125163023</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2873885287.925061</v>
+        <v>3748176930.433202</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08421681998857722</v>
+        <v>0.1012311531011955</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04278620860064061</v>
+        <v>0.02917526474077477</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2514116572.212252</v>
+        <v>2458700015.313111</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1946966168092319</v>
+        <v>0.1890321084052757</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0195569477625137</v>
+        <v>0.01841722557709923</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2295943986.650379</v>
+        <v>1594085359.906103</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06629352970068644</v>
+        <v>0.06447091384840997</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02642947066318614</v>
+        <v>0.0317999013089254</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2277843718.156081</v>
+        <v>2241028364.337571</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1291117446160605</v>
+        <v>0.1178828433772202</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03711906016071972</v>
+        <v>0.03687461968744384</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5195549767.242894</v>
+        <v>5718656982.46862</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1217723483779467</v>
+        <v>0.1509277813630897</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04124562179854051</v>
+        <v>0.04942869144852353</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4776838862.242769</v>
+        <v>3364134394.122175</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1603982637840659</v>
+        <v>0.2015108460836412</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04639937826452073</v>
+        <v>0.03763117736160844</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1774,13 +1774,13 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3091992360.852643</v>
+        <v>4225118114.355506</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1023141318149774</v>
+        <v>0.1075878132838972</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03599547823300122</v>
+        <v>0.03879915182238383</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1802,13 +1802,13 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1766736102.78907</v>
+        <v>1691084114.355445</v>
       </c>
       <c r="F49" t="n">
-        <v>0.191739890328531</v>
+        <v>0.1789689786448158</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04123920787148464</v>
+        <v>0.0387323598826771</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,22 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2926381416.809564</v>
+        <v>2814746641.438729</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1408729436207978</v>
+        <v>0.1612218859371849</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05123890766488405</v>
+        <v>0.03592186422231422</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1450247581.7082</v>
+        <v>1488866927.248315</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1806038649671943</v>
+        <v>0.189462916468282</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03788140857325968</v>
+        <v>0.03922860005783267</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3860407557.41569</v>
+        <v>5292832185.250686</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1207469316717529</v>
+        <v>0.09426658074943509</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04235214383653659</v>
+        <v>0.05109787085368279</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3419743878.495469</v>
+        <v>3629354003.688857</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1669701905358704</v>
+        <v>0.145816322903504</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03168105333510912</v>
+        <v>0.03021528646038819</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,19 +1936,19 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3809167242.949017</v>
+        <v>3108530756.615361</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1555265552114821</v>
+        <v>0.1442393394685945</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03740035036402059</v>
+        <v>0.04308484788101111</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3453012858.518845</v>
+        <v>3979047388.770995</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1973440207172986</v>
+        <v>0.1706027355146356</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02092698830528073</v>
+        <v>0.03123521676624942</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1591729936.243582</v>
+        <v>1227235047.571922</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1526774205790284</v>
+        <v>0.1580130124583964</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05607314463907061</v>
+        <v>0.04349486368570171</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3649456555.726222</v>
+        <v>4130966366.723659</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1530191377287789</v>
+        <v>0.1193161064925721</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02376382369317453</v>
+        <v>0.02767983974414934</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2054,13 +2054,13 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1568412251.507376</v>
+        <v>1169343302.140118</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1316692455510868</v>
+        <v>0.1748786054246451</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02528758890803984</v>
+        <v>0.02716735343721424</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4330285399.373138</v>
+        <v>5354853435.228678</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1272280984064026</v>
+        <v>0.1182202668948346</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04241060015553179</v>
+        <v>0.03408598829457508</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3013277223.349492</v>
+        <v>3543323700.369832</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1264011722156837</v>
+        <v>0.1815381220755429</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03097689763362755</v>
+        <v>0.02283290523499192</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2710638460.883999</v>
+        <v>2916248969.287265</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1797415404210659</v>
+        <v>0.1624667680344286</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02952813019281227</v>
+        <v>0.03248508922719118</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2166,13 +2166,13 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1871275354.33679</v>
+        <v>1843518388.938412</v>
       </c>
       <c r="F62" t="n">
-        <v>0.152190463207859</v>
+        <v>0.1233050315564402</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04488470587950122</v>
+        <v>0.03193579282024459</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4318794244.387474</v>
+        <v>4429698015.369987</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09015090642469814</v>
+        <v>0.1037808853404967</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03455070194141173</v>
+        <v>0.02912942007447422</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3971456871.546659</v>
+        <v>3588116793.09204</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1756592064593891</v>
+        <v>0.1584213682878871</v>
       </c>
       <c r="G64" t="n">
-        <v>0.031343892822681</v>
+        <v>0.02243950056033874</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4868012205.558558</v>
+        <v>5776337662.994733</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1415136906136358</v>
+        <v>0.1080539286331506</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0281779967553682</v>
+        <v>0.02119281342181191</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2278,13 +2278,13 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4382282327.067891</v>
+        <v>4846732508.320802</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1051536916272124</v>
+        <v>0.1460451264158577</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04631848571250825</v>
+        <v>0.04286280261267879</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2286804511.310249</v>
+        <v>2252097977.764167</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08341256619707667</v>
+        <v>0.08511005053302347</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03607408498662745</v>
+        <v>0.05148525458303546</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2334,13 +2334,13 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5956008771.390557</v>
+        <v>5584501691.311485</v>
       </c>
       <c r="F68" t="n">
-        <v>0.140502850914878</v>
+        <v>0.1195833737172066</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05156467923831234</v>
+        <v>0.03585941536522467</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -2356,22 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1716716228.883295</v>
+        <v>2402382618.941934</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1771613938883892</v>
+        <v>0.1478528706944018</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05904245452472415</v>
+        <v>0.04655538586559987</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3367543770.770824</v>
+        <v>3714620812.881147</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06825146109875581</v>
+        <v>0.1027886450914455</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04830985997774155</v>
+        <v>0.04743578663930646</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5540170119.396622</v>
+        <v>4014911313.009817</v>
       </c>
       <c r="F71" t="n">
-        <v>0.160093276778899</v>
+        <v>0.1681097355280525</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03288350008149656</v>
+        <v>0.02763300273181647</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1556640549.488351</v>
+        <v>2093236728.843171</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09636155825484548</v>
+        <v>0.07229884835165624</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04551436432421501</v>
+        <v>0.0375843382617885</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3494688600.702699</v>
+        <v>3593136662.522523</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07462440030524459</v>
+        <v>0.08441788559831478</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03898954999821008</v>
+        <v>0.03547055494494345</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2502,13 +2502,13 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3095949361.306427</v>
+        <v>3895441604.225784</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1176528603702479</v>
+        <v>0.1421677639856928</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02613057141693631</v>
+        <v>0.0303332437216585</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,22 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1511744519.233518</v>
+        <v>2377119304.924138</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1331242511827088</v>
+        <v>0.1621323101491009</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03324864212314439</v>
+        <v>0.03659767646796454</v>
       </c>
       <c r="H75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2558,16 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4450354439.02935</v>
+        <v>4005943613.299048</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1016062883726142</v>
+        <v>0.09421268269792804</v>
       </c>
       <c r="G76" t="n">
-        <v>0.021245110591453</v>
+        <v>0.02340386278059054</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1664098870.138891</v>
+        <v>1708374363.159186</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1837680878135048</v>
+        <v>0.1129522095825184</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02903792674017611</v>
+        <v>0.02737020396477479</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3400008013.454754</v>
+        <v>3283087563.847942</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1022748623962737</v>
+        <v>0.1216077478445386</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03872468178119601</v>
+        <v>0.0414301608635311</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1683326432.792764</v>
+        <v>1631426234.033232</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1464512346760293</v>
+        <v>0.1516665235490961</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02872873644181114</v>
+        <v>0.03483049611961245</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2670,16 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4239299635.628456</v>
+        <v>5159629242.933252</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1040054001629194</v>
+        <v>0.1084370732873537</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03872658182722933</v>
+        <v>0.03256969155718027</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3337677310.961291</v>
+        <v>4192308727.889544</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1030348275099863</v>
+        <v>0.115277243103059</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02372295356893534</v>
+        <v>0.03259740006027244</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4871385908.368484</v>
+        <v>5165424930.575027</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1543253035078528</v>
+        <v>0.2067739895751809</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02949076882000443</v>
+        <v>0.02871316632780908</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,22 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1687412544.668343</v>
+        <v>2375993323.912882</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1079491931204141</v>
+        <v>0.1103038831909206</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03305468788508726</v>
+        <v>0.0308836701107652</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2210123332.382157</v>
+        <v>1898117933.372431</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1194297749138552</v>
+        <v>0.1122785137380161</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04000070692938785</v>
+        <v>0.04141787405743252</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,22 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3199186882.914091</v>
+        <v>3485880996.271117</v>
       </c>
       <c r="F85" t="n">
-        <v>0.155399676387236</v>
+        <v>0.1515500524029343</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04635882441762194</v>
+        <v>0.04637952202345322</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2456039793.186452</v>
+        <v>2391901986.353219</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1703345226574439</v>
+        <v>0.1666039145663948</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02580555450871274</v>
+        <v>0.0271227731321735</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2866,13 +2866,13 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1022110201.083124</v>
+        <v>1317137118.045338</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1362148397506564</v>
+        <v>0.1339278742650418</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03072562299032188</v>
+        <v>0.04395747891104585</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3142956435.865877</v>
+        <v>3265064357.718336</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1590930699668746</v>
+        <v>0.1597432286561529</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03483541973357413</v>
+        <v>0.03476702438704053</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2147005093.595291</v>
+        <v>2484259908.104796</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1411994314223486</v>
+        <v>0.09989204490085579</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02850075065267511</v>
+        <v>0.03322301298818493</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,22 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1485667355.217927</v>
+        <v>1512573406.37113</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1229290502718304</v>
+        <v>0.08728033525368491</v>
       </c>
       <c r="G90" t="n">
-        <v>0.045265915684908</v>
+        <v>0.04660268408977529</v>
       </c>
       <c r="H90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2972,22 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2099659022.722743</v>
+        <v>1618782718.691003</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1831682266369633</v>
+        <v>0.1960357781311998</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0525269713776571</v>
+        <v>0.05366794198654522</v>
       </c>
       <c r="H91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3000,22 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>3004726168.478868</v>
+        <v>2796310268.819005</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07744382277592229</v>
+        <v>0.078475789727667</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04078301320264615</v>
+        <v>0.04622627867669263</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3034,13 +3034,13 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4942561208.773016</v>
+        <v>3962042407.097691</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1138105389994168</v>
+        <v>0.09040457524833</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03918477699019289</v>
+        <v>0.03740817119364279</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1817403698.803254</v>
+        <v>1521349039.746298</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1384444311869326</v>
+        <v>0.1131140926354431</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04220860632278243</v>
+        <v>0.03716617613580453</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2720758255.944592</v>
+        <v>3027410712.912764</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09045418237762322</v>
+        <v>0.1326021744611143</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04974781789496592</v>
+        <v>0.04218104641156901</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1855444805.206291</v>
+        <v>2132835046.487219</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1414366929505454</v>
+        <v>0.1170340321003507</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03986567158147061</v>
+        <v>0.03024790971848703</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4219900290.618052</v>
+        <v>4337458242.3915</v>
       </c>
       <c r="F97" t="n">
-        <v>0.114656233118265</v>
+        <v>0.1632088321180661</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02612397936819019</v>
+        <v>0.02673610686788307</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2880063406.106168</v>
+        <v>2504977870.812212</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1112317734731902</v>
+        <v>0.1057847727783357</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0233506625855501</v>
+        <v>0.03216750923910566</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2900731067.470756</v>
+        <v>2575845317.564097</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1195694003647451</v>
+        <v>0.1452679603807757</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02561822236472906</v>
+        <v>0.02263984833394062</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3312854092.080065</v>
+        <v>3208801582.40962</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1251047505936619</v>
+        <v>0.1642769246548849</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02441671170410145</v>
+        <v>0.0267781437176781</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3258,13 +3258,13 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2431045729.002968</v>
+        <v>3473280046.291673</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1724826907679572</v>
+        <v>0.2138577273035482</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05651745850346516</v>
+        <v>0.04631230023138619</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_109.xlsx
+++ b/output/fit_clients/fit_round_109.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2067275683.254501</v>
+        <v>1932915150.191985</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1128234405056259</v>
+        <v>0.07029192303312511</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03427756642007947</v>
+        <v>0.03539435959731779</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2331913381.968176</v>
+        <v>1803294564.421759</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1216009805633754</v>
+        <v>0.1608123694022336</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03308790558159615</v>
+        <v>0.03217286222858797</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,16 +571,25 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3715047150.19938</v>
+        <v>3444795666.539551</v>
       </c>
       <c r="F4" t="n">
-        <v>0.154022072436799</v>
+        <v>0.1205038879670042</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0260114300926238</v>
+        <v>0.03453019364616625</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>67</v>
+      </c>
+      <c r="J4" t="n">
+        <v>108</v>
+      </c>
+      <c r="K4" t="n">
+        <v>115.7555246352066</v>
       </c>
     </row>
     <row r="5">
@@ -564,23 +602,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4194950369.2132</v>
+        <v>3512029728.750204</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08026508381351138</v>
+        <v>0.07416950609854973</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04520438244740906</v>
+        <v>0.04375697079029404</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>46</v>
+      </c>
+      <c r="J5" t="n">
+        <v>109</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,17 +643,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2348673884.535315</v>
+        <v>2667575555.414163</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09625325088118729</v>
+        <v>0.1463545331898809</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05418909927389819</v>
+        <v>0.05111204375909141</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2226545267.975408</v>
+        <v>2794579017.991357</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09167621307341799</v>
+        <v>0.07779387477521479</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03820977715029684</v>
+        <v>0.03488629737724747</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +707,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2998976836.88444</v>
+        <v>3123491855.576034</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1745127044435758</v>
+        <v>0.1766684976853207</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02918698685811279</v>
+        <v>0.03098514390733833</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>30</v>
+      </c>
+      <c r="J8" t="n">
+        <v>108</v>
+      </c>
+      <c r="K8" t="n">
+        <v>96.45994172698131</v>
       </c>
     </row>
     <row r="9">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1998645792.091686</v>
+        <v>2088250341.140088</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1911773426624908</v>
+        <v>0.1690610065166925</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03042073250584368</v>
+        <v>0.03741850904816463</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +779,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5582597914.356029</v>
+        <v>5239793734.500266</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1820943429720657</v>
+        <v>0.2055470162758029</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04864546051727837</v>
+        <v>0.03330379405275369</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>100</v>
+      </c>
+      <c r="J10" t="n">
+        <v>109</v>
+      </c>
+      <c r="K10" t="n">
+        <v>172.8585489307127</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +816,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3766541971.472917</v>
+        <v>3216510179.22499</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1666745444921326</v>
+        <v>0.1637630803818237</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03151218132890445</v>
+        <v>0.03267798851889989</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>46</v>
+      </c>
+      <c r="J11" t="n">
+        <v>107</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2165173009.602442</v>
+        <v>2805707650.501766</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1473465265763684</v>
+        <v>0.1231047986470369</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05097319246563695</v>
+        <v>0.05267086660738015</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +886,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3907278684.318702</v>
+        <v>4883864010.60848</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07702865342546529</v>
+        <v>0.09438200142074164</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02309723973540555</v>
+        <v>0.02593568967042744</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>54</v>
+      </c>
+      <c r="J13" t="n">
+        <v>109</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +921,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3010652511.304356</v>
+        <v>2831643569.556351</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1661822550408043</v>
+        <v>0.1657821228205718</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03641641825271692</v>
+        <v>0.03619993097907596</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>21</v>
+      </c>
+      <c r="J14" t="n">
+        <v>104</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1459450835.89583</v>
+        <v>1820602517.705427</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1038170448782464</v>
+        <v>0.09202334514973344</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04658233494131319</v>
+        <v>0.04139668455755237</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +997,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2427310083.626224</v>
+        <v>2605434722.407908</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1076984072152796</v>
+        <v>0.07855381272653757</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0498217863912981</v>
+        <v>0.05090132702962875</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,17 +1032,24 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4240364468.22804</v>
+        <v>5104645189.245552</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1140289514992161</v>
+        <v>0.1357387422329906</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03371059018202315</v>
+        <v>0.04488601735567085</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>52</v>
+      </c>
+      <c r="J17" t="n">
+        <v>109</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1061,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3405934701.412894</v>
+        <v>3301812733.825697</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1744099307260818</v>
+        <v>0.1781957540171479</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02483388825313286</v>
+        <v>0.02724306630437883</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>28</v>
+      </c>
+      <c r="J18" t="n">
+        <v>105</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -962,17 +1102,24 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1198678327.864937</v>
+        <v>1219519542.611661</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1878515935018841</v>
+        <v>0.1746470390751355</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02459238274817624</v>
+        <v>0.01927411836833814</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1131,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1708445383.384363</v>
+        <v>1871509992.992843</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1311056024657982</v>
+        <v>0.1038555546960686</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02807184684292074</v>
+        <v>0.03195909670597238</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1172,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2396367612.981599</v>
+        <v>1659069094.980705</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06867964047861638</v>
+        <v>0.07988151383959004</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03537278877606325</v>
+        <v>0.0444406870080309</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1201,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3516245116.990998</v>
+        <v>2961802080.845111</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1092345077063887</v>
+        <v>0.1214118781443849</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04159473642966976</v>
+        <v>0.04305726277887526</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>27</v>
+      </c>
+      <c r="J22" t="n">
+        <v>107</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1236,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1393894756.693322</v>
+        <v>1238068677.6042</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1383622854259155</v>
+        <v>0.1455301204574359</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05483340912952265</v>
+        <v>0.05392357977661576</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,22 +1271,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2777423486.154912</v>
+        <v>2497436843.767497</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1023765901338914</v>
+        <v>0.1429572226626498</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03139937280584796</v>
+        <v>0.03163217044677666</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>33</v>
+      </c>
+      <c r="J24" t="n">
+        <v>108</v>
+      </c>
+      <c r="K24" t="n">
+        <v>55.87869856371788</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1308,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1353731516.04566</v>
+        <v>1077256833.675866</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09707688802904879</v>
+        <v>0.09151196849989331</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02681118305001835</v>
+        <v>0.02728811805247443</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1343,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1154130548.603368</v>
+        <v>1313159825.685215</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1218891725149096</v>
+        <v>0.1024402649784183</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02541611456031317</v>
+        <v>0.02821225506788069</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1378,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3355798060.210273</v>
+        <v>3943379588.399336</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1574523955450315</v>
+        <v>0.09667056143948026</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02183248972841945</v>
+        <v>0.02060676426146823</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>43</v>
+      </c>
+      <c r="J27" t="n">
+        <v>108</v>
+      </c>
+      <c r="K27" t="n">
+        <v>126.8595782201501</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1415,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3768545973.575239</v>
+        <v>3705417481.048808</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1421874802931261</v>
+        <v>0.1201937905320891</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03572136441183303</v>
+        <v>0.04143923546796775</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>23</v>
+      </c>
+      <c r="J28" t="n">
+        <v>109</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1450,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5043334252.033992</v>
+        <v>5073986803.813363</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1227119722740793</v>
+        <v>0.1177283274390841</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03927861763442951</v>
+        <v>0.03564035240621966</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>102</v>
+      </c>
+      <c r="J29" t="n">
+        <v>109</v>
+      </c>
+      <c r="K29" t="n">
+        <v>183.686559251048</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1487,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1997705424.412508</v>
+        <v>2197423501.277307</v>
       </c>
       <c r="F30" t="n">
-        <v>0.132143568026745</v>
+        <v>0.08798490552515247</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03048164656268863</v>
+        <v>0.039195522768265</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1522,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1039511799.236487</v>
+        <v>951031705.1226099</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07301168326849879</v>
+        <v>0.1113851803985437</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04575462533303305</v>
+        <v>0.03867210775407652</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1557,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1433627348.658895</v>
+        <v>1284159902.585541</v>
       </c>
       <c r="F32" t="n">
-        <v>0.117129306259799</v>
+        <v>0.1012418673498157</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03803639340726756</v>
+        <v>0.03544077197827076</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1598,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2878350072.537766</v>
+        <v>3025233505.844247</v>
       </c>
       <c r="F33" t="n">
-        <v>0.19656806509356</v>
+        <v>0.145488363738175</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04418666937706581</v>
+        <v>0.04097802881528343</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1627,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1239272634.380556</v>
+        <v>1037644980.053854</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09224998223732585</v>
+        <v>0.1167016239758423</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0238999691120354</v>
+        <v>0.0265674375057656</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1662,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1096123593.508998</v>
+        <v>921926909.0297848</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1117244529463531</v>
+        <v>0.08473978485830146</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03035062798120717</v>
+        <v>0.03659549954943624</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1697,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2527034578.010362</v>
+        <v>3159546686.257963</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1445573877526794</v>
+        <v>0.1451546620961249</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02396309434890916</v>
+        <v>0.01994287857563701</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>86</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1738,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2649246614.697488</v>
+        <v>1944486162.583832</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1035395233603512</v>
+        <v>0.07687522751662615</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02646442650315282</v>
+        <v>0.02575585809361301</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1767,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1738619402.902033</v>
+        <v>2103112089.570074</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09382491149275514</v>
+        <v>0.08762076259672531</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03978812138336105</v>
+        <v>0.03582671906592899</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1802,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2015921253.858845</v>
+        <v>2108039195.194892</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1519605988698033</v>
+        <v>0.1629172856841376</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02118014148982053</v>
+        <v>0.02803122881286099</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1837,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1117063800.900001</v>
+        <v>1492381473.117555</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1198007022634962</v>
+        <v>0.1220762639964982</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04571723017760313</v>
+        <v>0.05810559587563431</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1872,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2874782885.955941</v>
+        <v>1885169243.607751</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1664622791141488</v>
+        <v>0.1185202274529115</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03466620125163023</v>
+        <v>0.03551469922682047</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1907,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3748176930.433202</v>
+        <v>3235235004.572654</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1012311531011955</v>
+        <v>0.121259329321766</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02917526474077477</v>
+        <v>0.04198759697125783</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>40</v>
+      </c>
+      <c r="J42" t="n">
+        <v>104</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1942,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2458700015.313111</v>
+        <v>2439415170.709588</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1890321084052757</v>
+        <v>0.1731577055233858</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01841722557709923</v>
+        <v>0.01601785302442344</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1977,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1594085359.906103</v>
+        <v>1816900295.38179</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06447091384840997</v>
+        <v>0.08769019989171403</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0317999013089254</v>
+        <v>0.03532675383656761</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2018,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2241028364.337571</v>
+        <v>2384221487.294459</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1178828433772202</v>
+        <v>0.1489683108827027</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03687461968744384</v>
+        <v>0.0362960134058375</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,17 +2053,24 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5718656982.46862</v>
+        <v>4458688467.970777</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1509277813630897</v>
+        <v>0.1505141888169987</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04942869144852353</v>
+        <v>0.03916448726974379</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>62</v>
+      </c>
+      <c r="J46" t="n">
+        <v>109</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1746,16 +2088,25 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3364134394.122175</v>
+        <v>4658229766.977785</v>
       </c>
       <c r="F47" t="n">
-        <v>0.2015108460836412</v>
+        <v>0.1923596843537096</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03763117736160844</v>
+        <v>0.04706222390238293</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>48</v>
+      </c>
+      <c r="J47" t="n">
+        <v>108</v>
+      </c>
+      <c r="K47" t="n">
+        <v>130.051383480581</v>
       </c>
     </row>
     <row r="48">
@@ -1768,23 +2119,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4225118114.355506</v>
+        <v>3609868415.51858</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1075878132838972</v>
+        <v>0.07462051236616704</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03879915182238383</v>
+        <v>0.02496763525673351</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>40</v>
+      </c>
+      <c r="J48" t="n">
+        <v>109</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1802,17 +2160,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1691084114.355445</v>
+        <v>1435392475.860713</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1789689786448158</v>
+        <v>0.1417212030301598</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0387323598826771</v>
+        <v>0.03255821226738241</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2189,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2814746641.438729</v>
+        <v>3070524879.846936</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1612218859371849</v>
+        <v>0.1101571157256958</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03592186422231422</v>
+        <v>0.04752916291663863</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>38</v>
+      </c>
+      <c r="J50" t="n">
+        <v>108</v>
+      </c>
+      <c r="K50" t="n">
+        <v>92.15470152133305</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2226,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1488866927.248315</v>
+        <v>1039702962.609649</v>
       </c>
       <c r="F51" t="n">
-        <v>0.189462916468282</v>
+        <v>0.1349491215874709</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03922860005783267</v>
+        <v>0.03674486286031292</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2261,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5292832185.250686</v>
+        <v>3204028471.354033</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09426658074943509</v>
+        <v>0.09538596636223905</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05109787085368279</v>
+        <v>0.04262587526423853</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>84</v>
+      </c>
+      <c r="J52" t="n">
+        <v>108</v>
+      </c>
+      <c r="K52" t="n">
+        <v>105.4588292408273</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2298,31 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3629354003.688857</v>
+        <v>3037068919.168664</v>
       </c>
       <c r="F53" t="n">
-        <v>0.145816322903504</v>
+        <v>0.2029565670600209</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03021528646038819</v>
+        <v>0.02479579767893892</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>12</v>
+      </c>
+      <c r="J53" t="n">
+        <v>108</v>
+      </c>
+      <c r="K53" t="n">
+        <v>83.57138355116128</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +2335,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3108530756.615361</v>
+        <v>3991252829.873634</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1442393394685945</v>
+        <v>0.1428512786820157</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04308484788101111</v>
+        <v>0.03516853521290095</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>49</v>
+      </c>
+      <c r="J54" t="n">
+        <v>109</v>
+      </c>
+      <c r="K54" t="n">
+        <v>156.8726464532283</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2372,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3979047388.770995</v>
+        <v>4945565044.813733</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1706027355146356</v>
+        <v>0.1866873290732294</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03123521676624942</v>
+        <v>0.03250424605031152</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>50</v>
+      </c>
+      <c r="J55" t="n">
+        <v>108</v>
+      </c>
+      <c r="K55" t="n">
+        <v>143.7075458666913</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2409,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1227235047.571922</v>
+        <v>1738581504.535248</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1580130124583964</v>
+        <v>0.1199225844832115</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04349486368570171</v>
+        <v>0.05064541020623717</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2444,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4130966366.723659</v>
+        <v>4242273741.889658</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1193161064925721</v>
+        <v>0.1584112384994619</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02767983974414934</v>
+        <v>0.02254332805155525</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>42</v>
+      </c>
+      <c r="J57" t="n">
+        <v>108</v>
+      </c>
+      <c r="K57" t="n">
+        <v>148.0647101145233</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2481,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1169343302.140118</v>
+        <v>1717888429.06149</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1748786054246451</v>
+        <v>0.1320039481739614</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02716735343721424</v>
+        <v>0.0282881056147202</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,16 +2522,25 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5354853435.228678</v>
+        <v>4851713419.165982</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1182202668948346</v>
+        <v>0.08555351891277194</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03408598829457508</v>
+        <v>0.04774720595791702</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>53</v>
+      </c>
+      <c r="J59" t="n">
+        <v>108</v>
+      </c>
+      <c r="K59" t="n">
+        <v>145.1969882975575</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2553,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3543323700.369832</v>
+        <v>3362163378.23744</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1815381220755429</v>
+        <v>0.1796331498516997</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02283290523499192</v>
+        <v>0.03186229935397764</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>15</v>
+      </c>
+      <c r="J60" t="n">
+        <v>106</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2588,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2916248969.287265</v>
+        <v>2837259237.394567</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1624667680344286</v>
+        <v>0.1148370060511645</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03248508922719118</v>
+        <v>0.03308105963323082</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>79</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2623,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1843518388.938412</v>
+        <v>2109559285.492074</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1233050315564402</v>
+        <v>0.1375824921655448</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03193579282024459</v>
+        <v>0.03816755564157322</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2658,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4429698015.369987</v>
+        <v>5061114187.761507</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1037808853404967</v>
+        <v>0.1015796926834176</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02912942007447422</v>
+        <v>0.03411340371425054</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>54</v>
+      </c>
+      <c r="J63" t="n">
+        <v>108</v>
+      </c>
+      <c r="K63" t="n">
+        <v>141.7068300661211</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2695,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3588116793.09204</v>
+        <v>3768851567.972761</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1584213682878871</v>
+        <v>0.1483187808792695</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02243950056033874</v>
+        <v>0.03087127480438566</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>54</v>
+      </c>
+      <c r="J64" t="n">
+        <v>108</v>
+      </c>
+      <c r="K64" t="n">
+        <v>134.2820801639414</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2732,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5776337662.994733</v>
+        <v>3704629259.04585</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1080539286331506</v>
+        <v>0.1213737907806225</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02119281342181191</v>
+        <v>0.02980194915639291</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>90</v>
+      </c>
+      <c r="J65" t="n">
+        <v>108</v>
+      </c>
+      <c r="K65" t="n">
+        <v>139.541333352917</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2769,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4846732508.320802</v>
+        <v>5318203560.469268</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1460451264158577</v>
+        <v>0.1154994517130328</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04286280261267879</v>
+        <v>0.03226827024393995</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>53</v>
+      </c>
+      <c r="J66" t="n">
+        <v>109</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2804,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2252097977.764167</v>
+        <v>3478345440.847197</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08511005053302347</v>
+        <v>0.08451333961111882</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05148525458303546</v>
+        <v>0.03844402842316958</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2839,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5584501691.311485</v>
+        <v>4307147499.126875</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1195833737172066</v>
+        <v>0.1224979943674258</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03585941536522467</v>
+        <v>0.05157337875187792</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>54</v>
+      </c>
+      <c r="J68" t="n">
+        <v>109</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2874,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2402382618.941934</v>
+        <v>1950720217.480206</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1478528706944018</v>
+        <v>0.1358228518180298</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04655538586559987</v>
+        <v>0.03724889112876001</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2909,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3714620812.881147</v>
+        <v>3230012915.145261</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1027886450914455</v>
+        <v>0.08332980854756245</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04743578663930646</v>
+        <v>0.04526345495325861</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>13</v>
+      </c>
+      <c r="J70" t="n">
+        <v>105</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,23 +2944,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4014911313.009817</v>
+        <v>4113641324.044877</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1681097355280525</v>
+        <v>0.1291006552357322</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02763300273181647</v>
+        <v>0.02973960103084694</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>88</v>
+      </c>
+      <c r="J71" t="n">
+        <v>109</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2979,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2093236728.843171</v>
+        <v>1418401624.724932</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07229884835165624</v>
+        <v>0.08814445996777075</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0375843382617885</v>
+        <v>0.05219799185853551</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3014,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3593136662.522523</v>
+        <v>2421954348.475254</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08441788559831478</v>
+        <v>0.1097551124685876</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03547055494494345</v>
+        <v>0.05099836009792592</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>7</v>
+      </c>
+      <c r="J73" t="n">
+        <v>98</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,22 +3049,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3895441604.225784</v>
+        <v>4018771310.046309</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1421677639856928</v>
+        <v>0.1768016799200252</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0303332437216585</v>
+        <v>0.02387927749973773</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>37</v>
+      </c>
+      <c r="J74" t="n">
+        <v>109</v>
+      </c>
+      <c r="K74" t="n">
+        <v>156.0982716062855</v>
       </c>
     </row>
     <row r="75">
@@ -2530,17 +3092,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2377119304.924138</v>
+        <v>1567138139.566408</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1621323101491009</v>
+        <v>0.1384951344930755</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03659767646796454</v>
+        <v>0.03246489577331533</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3121,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4005943613.299048</v>
+        <v>4645799742.167821</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09421268269792804</v>
+        <v>0.09822690229216287</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02340386278059054</v>
+        <v>0.02939467713736891</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>50</v>
+      </c>
+      <c r="J76" t="n">
+        <v>109</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3156,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1708374363.159186</v>
+        <v>1912094191.665103</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1129522095825184</v>
+        <v>0.1278121986344815</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02737020396477479</v>
+        <v>0.02945887689266784</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3191,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3283087563.847942</v>
+        <v>3920032793.887968</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1216077478445386</v>
+        <v>0.09742643223047316</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0414301608635311</v>
+        <v>0.03853617666763836</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>54</v>
+      </c>
+      <c r="J78" t="n">
+        <v>109</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3226,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1631426234.033232</v>
+        <v>1247129639.373983</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1516665235490961</v>
+        <v>0.1278402550184889</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03483049611961245</v>
+        <v>0.03430439128973503</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3261,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5159629242.933252</v>
+        <v>3512018482.372512</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1084370732873537</v>
+        <v>0.08017041384592263</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03256969155718027</v>
+        <v>0.02520596175457634</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>52</v>
+      </c>
+      <c r="J80" t="n">
+        <v>109</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3296,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4192308727.889544</v>
+        <v>4685944202.384386</v>
       </c>
       <c r="F81" t="n">
-        <v>0.115277243103059</v>
+        <v>0.1081522739848856</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03259740006027244</v>
+        <v>0.03078145676710925</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>48</v>
+      </c>
+      <c r="J81" t="n">
+        <v>109</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3331,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5165424930.575027</v>
+        <v>5254405459.988518</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2067739895751809</v>
+        <v>0.1614541497433186</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02871316632780908</v>
+        <v>0.02293519159068644</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>73</v>
+      </c>
+      <c r="J82" t="n">
+        <v>109</v>
+      </c>
+      <c r="K82" t="n">
+        <v>165.9701123315392</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3368,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2375993323.912882</v>
+        <v>1807633794.535944</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1103038831909206</v>
+        <v>0.1030037309720919</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0308836701107652</v>
+        <v>0.04241831104533717</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3403,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1898117933.372431</v>
+        <v>2515258498.924037</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1122785137380161</v>
+        <v>0.1173831515276932</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04141787405743252</v>
+        <v>0.03324062231606185</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3444,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3485880996.271117</v>
+        <v>3029723677.399651</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1515500524029343</v>
+        <v>0.173427695511287</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04637952202345322</v>
+        <v>0.04784314363664215</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>19</v>
+      </c>
+      <c r="J85" t="n">
+        <v>106</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3473,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2391901986.353219</v>
+        <v>2269773587.639908</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1666039145663948</v>
+        <v>0.1511488041270411</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0271227731321735</v>
+        <v>0.02689828089086381</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3508,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1317137118.045338</v>
+        <v>1147535630.799439</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1339278742650418</v>
+        <v>0.1901712211284002</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04395747891104585</v>
+        <v>0.03532531033813606</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3543,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3265064357.718336</v>
+        <v>2360465086.584378</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1597432286561529</v>
+        <v>0.1300824766170445</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03476702438704053</v>
+        <v>0.03947635573014136</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>17</v>
+      </c>
+      <c r="J88" t="n">
+        <v>106</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3578,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2484259908.104796</v>
+        <v>2365887124.83537</v>
       </c>
       <c r="F89" t="n">
-        <v>0.09989204490085579</v>
+        <v>0.127502753492259</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03322301298818493</v>
+        <v>0.02552645027433106</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>10</v>
+      </c>
+      <c r="J89" t="n">
+        <v>97</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1512573406.37113</v>
+        <v>1700632581.217962</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08728033525368491</v>
+        <v>0.1213183645247239</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04660268408977529</v>
+        <v>0.05638472542896149</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3648,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1618782718.691003</v>
+        <v>1594841285.823599</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1960357781311998</v>
+        <v>0.1745831448185575</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05366794198654522</v>
+        <v>0.058696656267175</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3683,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2796310268.819005</v>
+        <v>2349335116.809537</v>
       </c>
       <c r="F92" t="n">
-        <v>0.078475789727667</v>
+        <v>0.08895988077846441</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04622627867669263</v>
+        <v>0.04320797497007357</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3718,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3962042407.097691</v>
+        <v>4622013578.688186</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09040457524833</v>
+        <v>0.1061122090251399</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03740817119364279</v>
+        <v>0.03515234531247546</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>50</v>
+      </c>
+      <c r="J93" t="n">
+        <v>108</v>
+      </c>
+      <c r="K93" t="n">
+        <v>145.4852512515595</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3755,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1521349039.746298</v>
+        <v>1603110988.987586</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1131140926354431</v>
+        <v>0.1228534649183591</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03716617613580453</v>
+        <v>0.03746338447037042</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3790,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3027410712.912764</v>
+        <v>2698808609.323465</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1326021744611143</v>
+        <v>0.09430809769734806</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04218104641156901</v>
+        <v>0.03696756951721177</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3118,17 +3831,24 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2132835046.487219</v>
+        <v>2016865098.552204</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1170340321003507</v>
+        <v>0.09927617727992885</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03024790971848703</v>
+        <v>0.03746026860661921</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3860,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4337458242.3915</v>
+        <v>3748916680.055596</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1632088321180661</v>
+        <v>0.1550206806718569</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02673610686788307</v>
+        <v>0.02231539286415823</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>52</v>
+      </c>
+      <c r="J97" t="n">
+        <v>109</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2504977870.812212</v>
+        <v>2650557355.107441</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1057847727783357</v>
+        <v>0.08915929545296947</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03216750923910566</v>
+        <v>0.03188194564505431</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>25</v>
+      </c>
+      <c r="J98" t="n">
+        <v>107</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2575845317.564097</v>
+        <v>2264193962.210597</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1452679603807757</v>
+        <v>0.1256883444739685</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02263984833394062</v>
+        <v>0.03233903278332462</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>62</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3208801582.40962</v>
+        <v>3841563228.706256</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1642769246548849</v>
+        <v>0.1240356785579252</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0267781437176781</v>
+        <v>0.01753480283304452</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>44</v>
+      </c>
+      <c r="J100" t="n">
+        <v>109</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3473280046.291673</v>
+        <v>3323436135.945374</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2138577273035482</v>
+        <v>0.2158397240523412</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04631230023138619</v>
+        <v>0.05475524804599886</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>6</v>
+      </c>
+      <c r="J101" t="n">
+        <v>103</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
